--- a/CodeSystem-v2-0276.xlsx
+++ b/CodeSystem-v2-0276.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -109,7 +109,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-v2-0276.xlsx
+++ b/CodeSystem-v2-0276.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -109,7 +109,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
   </si>
   <si>
     <t>Hierarchy</t>
